--- a/Benchmark/File-stability/flippedResults.xlsx
+++ b/Benchmark/File-stability/flippedResults.xlsx
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>

--- a/Benchmark/File-stability/flippedResults.xlsx
+++ b/Benchmark/File-stability/flippedResults.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>14</v>
+      </c>
+      <c r="C21" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>

--- a/Benchmark/File-stability/flippedResults.xlsx
+++ b/Benchmark/File-stability/flippedResults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -500,32 +500,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>aggregated_15MB.csv</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -534,74 +534,74 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>aggregated_15MB.csv</t>
+          <t>aggregated_5MB.avro</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>aggregated_5MB.avro</t>
+          <t>aggregated_15MB.avro</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>aggregated_15MB.avro</t>
+          <t>aggregated_10MB.csv</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>aggregated_10MB.csv</t>
+          <t>aggregated.csv</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -610,188 +610,188 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>aggregated.csv</t>
+          <t>aggregated_1MB.snappy.parquet</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>aggregated_1MB.snappy.parquet</t>
+          <t>aggregated_1MB.avro</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>aggregated_1MB.avro</t>
+          <t>aggregated_5MB.snappy.parquet</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>aggregated_5MB.snappy.parquet</t>
+          <t>aggregated_15MB.snappy.parquet</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>aggregated_15MB.snappy.parquet</t>
+          <t>aggregated_20MB.snappy.parquet</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>aggregated_20MB.snappy.parquet</t>
+          <t>aggregated_20MB.avro</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>aggregated_20MB.avro</t>
+          <t>aggregated_512KB.snappy.parquet</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>aggregated_512KB.snappy.parquet</t>
+          <t>aggregated_10MB.avro</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>aggregated_10MB.avro</t>
+          <t>aggregated_512KB.csv</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>aggregated_512KB.csv</t>
+          <t>aggregated_5MB.csv</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -800,17 +800,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>aggregated_5MB.csv</t>
+          <t>aggregated_1MB.csv</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -819,57 +819,38 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>aggregated_1MB.csv</t>
+          <t>aggregated.avro</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>aggregated.avro</t>
+          <t>aggregated_20MB.csv</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>aggregated_20MB.csv</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>12</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>6</v>
-      </c>
-      <c r="E23" t="n">
         <v>0</v>
       </c>
     </row>
